--- a/data/测试用例-模板.xlsx
+++ b/data/测试用例-模板.xlsx
@@ -1381,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J484"/>
+  <dimension ref="A1:J668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A485" sqref="$A485:$XFD668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5789,11 +5789,1659 @@
       <c r="H484" s="6"/>
       <c r="J484" s="6"/>
     </row>
+    <row r="485" spans="1:10">
+      <c r="A485" s="3"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+      <c r="H485" s="6"/>
+      <c r="J485" s="6"/>
+    </row>
+    <row r="486" spans="1:10">
+      <c r="A486" s="3"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="4"/>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+      <c r="H486" s="6"/>
+      <c r="J486" s="6"/>
+    </row>
+    <row r="487" spans="1:10">
+      <c r="A487" s="3"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="4"/>
+      <c r="D487" s="5"/>
+      <c r="E487" s="5"/>
+      <c r="H487" s="6"/>
+      <c r="J487" s="6"/>
+    </row>
+    <row r="488" spans="1:10">
+      <c r="A488" s="3"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="H488" s="6"/>
+      <c r="J488" s="6"/>
+    </row>
+    <row r="489" spans="1:10">
+      <c r="A489" s="3"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="4"/>
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
+      <c r="H489" s="6"/>
+      <c r="J489" s="6"/>
+    </row>
+    <row r="490" spans="1:10">
+      <c r="A490" s="3"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="4"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+      <c r="H490" s="6"/>
+      <c r="J490" s="6"/>
+    </row>
+    <row r="491" spans="1:10">
+      <c r="A491" s="3"/>
+      <c r="B491" s="4"/>
+      <c r="C491" s="4"/>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+      <c r="H491" s="6"/>
+      <c r="J491" s="6"/>
+    </row>
+    <row r="492" spans="1:10">
+      <c r="A492" s="3"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="4"/>
+      <c r="D492" s="5"/>
+      <c r="E492" s="5"/>
+      <c r="H492" s="6"/>
+      <c r="J492" s="6"/>
+    </row>
+    <row r="493" spans="1:10">
+      <c r="A493" s="3"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="4"/>
+      <c r="D493" s="5"/>
+      <c r="E493" s="5"/>
+      <c r="H493" s="6"/>
+      <c r="J493" s="6"/>
+    </row>
+    <row r="494" spans="1:10">
+      <c r="A494" s="3"/>
+      <c r="B494" s="4"/>
+      <c r="C494" s="4"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+      <c r="H494" s="6"/>
+      <c r="J494" s="6"/>
+    </row>
+    <row r="495" spans="1:10">
+      <c r="A495" s="3"/>
+      <c r="B495" s="4"/>
+      <c r="C495" s="4"/>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
+      <c r="H495" s="6"/>
+      <c r="J495" s="6"/>
+    </row>
+    <row r="496" spans="1:10">
+      <c r="A496" s="3"/>
+      <c r="B496" s="4"/>
+      <c r="C496" s="4"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+      <c r="H496" s="6"/>
+      <c r="J496" s="6"/>
+    </row>
+    <row r="497" spans="1:10">
+      <c r="A497" s="3"/>
+      <c r="B497" s="4"/>
+      <c r="C497" s="4"/>
+      <c r="D497" s="5"/>
+      <c r="E497" s="5"/>
+      <c r="H497" s="6"/>
+      <c r="J497" s="6"/>
+    </row>
+    <row r="498" spans="1:10">
+      <c r="A498" s="3"/>
+      <c r="B498" s="4"/>
+      <c r="C498" s="4"/>
+      <c r="D498" s="5"/>
+      <c r="E498" s="5"/>
+      <c r="H498" s="6"/>
+      <c r="J498" s="6"/>
+    </row>
+    <row r="499" spans="1:10">
+      <c r="A499" s="3"/>
+      <c r="B499" s="4"/>
+      <c r="C499" s="4"/>
+      <c r="D499" s="5"/>
+      <c r="E499" s="5"/>
+      <c r="H499" s="6"/>
+      <c r="J499" s="6"/>
+    </row>
+    <row r="500" spans="1:10">
+      <c r="A500" s="3"/>
+      <c r="B500" s="4"/>
+      <c r="C500" s="4"/>
+      <c r="D500" s="5"/>
+      <c r="E500" s="4"/>
+      <c r="H500" s="6"/>
+      <c r="J500" s="6"/>
+    </row>
+    <row r="501" spans="1:10">
+      <c r="A501" s="3"/>
+      <c r="B501" s="4"/>
+      <c r="C501" s="4"/>
+      <c r="D501" s="5"/>
+      <c r="E501" s="5"/>
+      <c r="H501" s="6"/>
+      <c r="J501" s="6"/>
+    </row>
+    <row r="502" spans="1:10">
+      <c r="A502" s="3"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="4"/>
+      <c r="E502" s="7"/>
+      <c r="H502" s="6"/>
+      <c r="J502" s="6"/>
+    </row>
+    <row r="503" spans="1:10">
+      <c r="A503" s="3"/>
+      <c r="B503" s="4"/>
+      <c r="C503" s="4"/>
+      <c r="D503" s="7"/>
+      <c r="E503" s="3"/>
+      <c r="H503" s="6"/>
+      <c r="J503" s="6"/>
+    </row>
+    <row r="504" spans="1:10">
+      <c r="A504" s="3"/>
+      <c r="B504" s="4"/>
+      <c r="C504" s="4"/>
+      <c r="D504" s="7"/>
+      <c r="E504" s="3"/>
+      <c r="H504" s="6"/>
+      <c r="J504" s="6"/>
+    </row>
+    <row r="505" spans="1:10">
+      <c r="A505" s="3"/>
+      <c r="B505" s="4"/>
+      <c r="C505" s="4"/>
+      <c r="D505" s="7"/>
+      <c r="E505" s="3"/>
+      <c r="H505" s="6"/>
+      <c r="J505" s="6"/>
+    </row>
+    <row r="506" spans="1:10">
+      <c r="A506" s="3"/>
+      <c r="B506" s="4"/>
+      <c r="C506" s="4"/>
+      <c r="D506" s="7"/>
+      <c r="E506" s="3"/>
+      <c r="H506" s="6"/>
+      <c r="J506" s="6"/>
+    </row>
+    <row r="507" spans="1:10">
+      <c r="A507" s="3"/>
+      <c r="B507" s="4"/>
+      <c r="C507" s="4"/>
+      <c r="D507" s="7"/>
+      <c r="E507" s="3"/>
+      <c r="H507" s="6"/>
+      <c r="J507" s="6"/>
+    </row>
+    <row r="508" spans="1:10">
+      <c r="A508" s="3"/>
+      <c r="B508" s="4"/>
+      <c r="C508" s="4"/>
+      <c r="D508" s="5"/>
+      <c r="E508" s="5"/>
+      <c r="H508" s="6"/>
+      <c r="J508" s="6"/>
+    </row>
+    <row r="509" spans="1:10">
+      <c r="A509" s="3"/>
+      <c r="B509" s="4"/>
+      <c r="C509" s="4"/>
+      <c r="D509" s="5"/>
+      <c r="E509" s="5"/>
+      <c r="H509" s="6"/>
+      <c r="J509" s="6"/>
+    </row>
+    <row r="510" spans="1:10">
+      <c r="A510" s="3"/>
+      <c r="B510" s="4"/>
+      <c r="C510" s="4"/>
+      <c r="D510" s="5"/>
+      <c r="E510" s="5"/>
+      <c r="H510" s="6"/>
+      <c r="J510" s="6"/>
+    </row>
+    <row r="511" spans="1:10">
+      <c r="A511" s="3"/>
+      <c r="B511" s="4"/>
+      <c r="C511" s="4"/>
+      <c r="D511" s="5"/>
+      <c r="E511" s="5"/>
+      <c r="H511" s="6"/>
+      <c r="J511" s="6"/>
+    </row>
+    <row r="512" spans="1:10">
+      <c r="A512" s="3"/>
+      <c r="B512" s="4"/>
+      <c r="C512" s="4"/>
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+      <c r="H512" s="6"/>
+      <c r="J512" s="6"/>
+    </row>
+    <row r="513" spans="1:10">
+      <c r="A513" s="3"/>
+      <c r="B513" s="4"/>
+      <c r="C513" s="4"/>
+      <c r="D513" s="5"/>
+      <c r="E513" s="5"/>
+      <c r="H513" s="6"/>
+      <c r="J513" s="6"/>
+    </row>
+    <row r="514" spans="1:10">
+      <c r="A514" s="3"/>
+      <c r="B514" s="4"/>
+      <c r="C514" s="4"/>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5"/>
+      <c r="H514" s="6"/>
+      <c r="J514" s="6"/>
+    </row>
+    <row r="515" spans="1:10">
+      <c r="A515" s="3"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="4"/>
+      <c r="D515" s="5"/>
+      <c r="E515" s="5"/>
+      <c r="H515" s="6"/>
+      <c r="J515" s="6"/>
+    </row>
+    <row r="516" spans="1:10">
+      <c r="A516" s="3"/>
+      <c r="B516" s="4"/>
+      <c r="C516" s="4"/>
+      <c r="D516" s="5"/>
+      <c r="E516" s="5"/>
+      <c r="H516" s="6"/>
+      <c r="J516" s="6"/>
+    </row>
+    <row r="517" spans="1:10">
+      <c r="A517" s="3"/>
+      <c r="B517" s="4"/>
+      <c r="C517" s="4"/>
+      <c r="D517" s="5"/>
+      <c r="E517" s="5"/>
+      <c r="H517" s="6"/>
+      <c r="J517" s="6"/>
+    </row>
+    <row r="518" spans="1:10">
+      <c r="A518" s="3"/>
+      <c r="B518" s="4"/>
+      <c r="C518" s="4"/>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
+      <c r="H518" s="6"/>
+      <c r="J518" s="6"/>
+    </row>
+    <row r="519" spans="1:10">
+      <c r="A519" s="3"/>
+      <c r="B519" s="4"/>
+      <c r="C519" s="4"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
+      <c r="H519" s="6"/>
+      <c r="J519" s="6"/>
+    </row>
+    <row r="520" spans="1:10">
+      <c r="A520" s="3"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="4"/>
+      <c r="D520" s="5"/>
+      <c r="E520" s="5"/>
+      <c r="H520" s="6"/>
+      <c r="J520" s="6"/>
+    </row>
+    <row r="521" spans="1:10">
+      <c r="A521" s="3"/>
+      <c r="B521" s="4"/>
+      <c r="C521" s="4"/>
+      <c r="D521" s="5"/>
+      <c r="E521" s="5"/>
+      <c r="H521" s="6"/>
+      <c r="J521" s="6"/>
+    </row>
+    <row r="522" spans="1:10">
+      <c r="A522" s="3"/>
+      <c r="B522" s="4"/>
+      <c r="C522" s="4"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+      <c r="H522" s="6"/>
+      <c r="J522" s="6"/>
+    </row>
+    <row r="523" spans="1:10">
+      <c r="A523" s="3"/>
+      <c r="B523" s="4"/>
+      <c r="C523" s="4"/>
+      <c r="D523" s="5"/>
+      <c r="E523" s="4"/>
+      <c r="H523" s="6"/>
+      <c r="J523" s="6"/>
+    </row>
+    <row r="524" spans="1:10">
+      <c r="A524" s="3"/>
+      <c r="B524" s="4"/>
+      <c r="C524" s="4"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+      <c r="H524" s="6"/>
+      <c r="J524" s="6"/>
+    </row>
+    <row r="525" spans="1:10">
+      <c r="A525" s="3"/>
+      <c r="B525" s="4"/>
+      <c r="C525" s="4"/>
+      <c r="E525" s="7"/>
+      <c r="H525" s="6"/>
+      <c r="J525" s="6"/>
+    </row>
+    <row r="526" spans="1:10">
+      <c r="A526" s="3"/>
+      <c r="B526" s="4"/>
+      <c r="C526" s="4"/>
+      <c r="D526" s="7"/>
+      <c r="E526" s="3"/>
+      <c r="H526" s="6"/>
+      <c r="J526" s="6"/>
+    </row>
+    <row r="527" spans="1:10">
+      <c r="A527" s="3"/>
+      <c r="B527" s="4"/>
+      <c r="C527" s="4"/>
+      <c r="D527" s="7"/>
+      <c r="E527" s="3"/>
+      <c r="H527" s="6"/>
+      <c r="J527" s="6"/>
+    </row>
+    <row r="528" spans="1:10">
+      <c r="A528" s="3"/>
+      <c r="B528" s="4"/>
+      <c r="C528" s="4"/>
+      <c r="D528" s="7"/>
+      <c r="E528" s="3"/>
+      <c r="H528" s="6"/>
+      <c r="J528" s="6"/>
+    </row>
+    <row r="529" spans="1:10">
+      <c r="A529" s="3"/>
+      <c r="B529" s="4"/>
+      <c r="C529" s="4"/>
+      <c r="D529" s="7"/>
+      <c r="E529" s="3"/>
+      <c r="H529" s="6"/>
+      <c r="J529" s="6"/>
+    </row>
+    <row r="530" spans="1:10">
+      <c r="A530" s="3"/>
+      <c r="B530" s="4"/>
+      <c r="C530" s="4"/>
+      <c r="D530" s="7"/>
+      <c r="E530" s="3"/>
+      <c r="H530" s="6"/>
+      <c r="J530" s="6"/>
+    </row>
+    <row r="531" spans="1:10">
+      <c r="A531" s="3"/>
+      <c r="B531" s="4"/>
+      <c r="C531" s="4"/>
+      <c r="D531" s="5"/>
+      <c r="E531" s="5"/>
+      <c r="H531" s="6"/>
+      <c r="J531" s="6"/>
+    </row>
+    <row r="532" spans="1:10">
+      <c r="A532" s="3"/>
+      <c r="B532" s="4"/>
+      <c r="C532" s="4"/>
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+      <c r="H532" s="6"/>
+      <c r="J532" s="6"/>
+    </row>
+    <row r="533" spans="1:10">
+      <c r="A533" s="3"/>
+      <c r="B533" s="4"/>
+      <c r="C533" s="4"/>
+      <c r="D533" s="5"/>
+      <c r="E533" s="5"/>
+      <c r="H533" s="6"/>
+      <c r="J533" s="6"/>
+    </row>
+    <row r="534" spans="1:10">
+      <c r="A534" s="3"/>
+      <c r="B534" s="4"/>
+      <c r="C534" s="4"/>
+      <c r="D534" s="5"/>
+      <c r="E534" s="5"/>
+      <c r="H534" s="6"/>
+      <c r="J534" s="6"/>
+    </row>
+    <row r="535" spans="1:10">
+      <c r="A535" s="3"/>
+      <c r="B535" s="4"/>
+      <c r="C535" s="4"/>
+      <c r="D535" s="5"/>
+      <c r="E535" s="5"/>
+      <c r="H535" s="6"/>
+      <c r="J535" s="6"/>
+    </row>
+    <row r="536" spans="1:10">
+      <c r="A536" s="3"/>
+      <c r="B536" s="4"/>
+      <c r="C536" s="4"/>
+      <c r="D536" s="5"/>
+      <c r="E536" s="5"/>
+      <c r="H536" s="6"/>
+      <c r="J536" s="6"/>
+    </row>
+    <row r="537" spans="1:10">
+      <c r="A537" s="3"/>
+      <c r="B537" s="4"/>
+      <c r="C537" s="4"/>
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+      <c r="H537" s="6"/>
+      <c r="J537" s="6"/>
+    </row>
+    <row r="538" spans="1:10">
+      <c r="A538" s="3"/>
+      <c r="B538" s="4"/>
+      <c r="C538" s="4"/>
+      <c r="D538" s="5"/>
+      <c r="E538" s="5"/>
+      <c r="H538" s="6"/>
+      <c r="J538" s="6"/>
+    </row>
+    <row r="539" spans="1:10">
+      <c r="A539" s="3"/>
+      <c r="B539" s="4"/>
+      <c r="C539" s="4"/>
+      <c r="D539" s="5"/>
+      <c r="E539" s="5"/>
+      <c r="H539" s="6"/>
+      <c r="J539" s="6"/>
+    </row>
+    <row r="540" spans="1:10">
+      <c r="A540" s="3"/>
+      <c r="B540" s="4"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="5"/>
+      <c r="E540" s="5"/>
+      <c r="H540" s="6"/>
+      <c r="J540" s="6"/>
+    </row>
+    <row r="541" spans="1:10">
+      <c r="A541" s="3"/>
+      <c r="B541" s="4"/>
+      <c r="C541" s="4"/>
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+      <c r="H541" s="6"/>
+      <c r="J541" s="6"/>
+    </row>
+    <row r="542" spans="1:10">
+      <c r="A542" s="3"/>
+      <c r="B542" s="4"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+      <c r="H542" s="6"/>
+      <c r="J542" s="6"/>
+    </row>
+    <row r="543" spans="1:10">
+      <c r="A543" s="3"/>
+      <c r="B543" s="4"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+      <c r="H543" s="6"/>
+      <c r="J543" s="6"/>
+    </row>
+    <row r="544" spans="1:10">
+      <c r="A544" s="3"/>
+      <c r="B544" s="4"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+      <c r="H544" s="6"/>
+      <c r="J544" s="6"/>
+    </row>
+    <row r="545" spans="1:10">
+      <c r="A545" s="3"/>
+      <c r="B545" s="4"/>
+      <c r="C545" s="4"/>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+      <c r="H545" s="6"/>
+      <c r="J545" s="6"/>
+    </row>
+    <row r="546" spans="1:10">
+      <c r="A546" s="3"/>
+      <c r="B546" s="4"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="4"/>
+      <c r="H546" s="6"/>
+      <c r="J546" s="6"/>
+    </row>
+    <row r="547" spans="1:10">
+      <c r="A547" s="3"/>
+      <c r="B547" s="4"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+      <c r="H547" s="6"/>
+      <c r="J547" s="6"/>
+    </row>
+    <row r="548" spans="1:10">
+      <c r="A548" s="3"/>
+      <c r="B548" s="4"/>
+      <c r="C548" s="4"/>
+      <c r="E548" s="7"/>
+      <c r="H548" s="6"/>
+      <c r="J548" s="6"/>
+    </row>
+    <row r="549" spans="1:10">
+      <c r="A549" s="3"/>
+      <c r="B549" s="4"/>
+      <c r="C549" s="4"/>
+      <c r="D549" s="7"/>
+      <c r="E549" s="3"/>
+      <c r="H549" s="6"/>
+      <c r="J549" s="6"/>
+    </row>
+    <row r="550" spans="1:10">
+      <c r="A550" s="3"/>
+      <c r="B550" s="4"/>
+      <c r="C550" s="4"/>
+      <c r="D550" s="7"/>
+      <c r="E550" s="3"/>
+      <c r="H550" s="6"/>
+      <c r="J550" s="6"/>
+    </row>
+    <row r="551" spans="1:10">
+      <c r="A551" s="3"/>
+      <c r="B551" s="4"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="7"/>
+      <c r="E551" s="3"/>
+      <c r="H551" s="6"/>
+      <c r="J551" s="6"/>
+    </row>
+    <row r="552" spans="1:10">
+      <c r="A552" s="3"/>
+      <c r="B552" s="4"/>
+      <c r="C552" s="4"/>
+      <c r="D552" s="7"/>
+      <c r="E552" s="3"/>
+      <c r="H552" s="6"/>
+      <c r="J552" s="6"/>
+    </row>
+    <row r="553" spans="1:10">
+      <c r="A553" s="3"/>
+      <c r="B553" s="4"/>
+      <c r="C553" s="4"/>
+      <c r="D553" s="7"/>
+      <c r="E553" s="3"/>
+      <c r="H553" s="6"/>
+      <c r="J553" s="6"/>
+    </row>
+    <row r="554" spans="1:10">
+      <c r="A554" s="3"/>
+      <c r="B554" s="4"/>
+      <c r="C554" s="4"/>
+      <c r="D554" s="5"/>
+      <c r="E554" s="5"/>
+      <c r="H554" s="6"/>
+      <c r="J554" s="6"/>
+    </row>
+    <row r="555" spans="1:10">
+      <c r="A555" s="3"/>
+      <c r="B555" s="4"/>
+      <c r="C555" s="4"/>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="H555" s="6"/>
+      <c r="J555" s="6"/>
+    </row>
+    <row r="556" spans="1:10">
+      <c r="A556" s="3"/>
+      <c r="B556" s="4"/>
+      <c r="C556" s="4"/>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+      <c r="H556" s="6"/>
+      <c r="J556" s="6"/>
+    </row>
+    <row r="557" spans="1:10">
+      <c r="A557" s="3"/>
+      <c r="B557" s="4"/>
+      <c r="C557" s="4"/>
+      <c r="D557" s="5"/>
+      <c r="E557" s="5"/>
+      <c r="H557" s="6"/>
+      <c r="J557" s="6"/>
+    </row>
+    <row r="558" spans="1:10">
+      <c r="A558" s="3"/>
+      <c r="B558" s="4"/>
+      <c r="C558" s="4"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="H558" s="6"/>
+      <c r="J558" s="6"/>
+    </row>
+    <row r="559" spans="1:10">
+      <c r="A559" s="3"/>
+      <c r="B559" s="4"/>
+      <c r="C559" s="4"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="5"/>
+      <c r="H559" s="6"/>
+      <c r="J559" s="6"/>
+    </row>
+    <row r="560" spans="1:10">
+      <c r="A560" s="3"/>
+      <c r="B560" s="4"/>
+      <c r="C560" s="4"/>
+      <c r="D560" s="5"/>
+      <c r="E560" s="5"/>
+      <c r="H560" s="6"/>
+      <c r="J560" s="6"/>
+    </row>
+    <row r="561" spans="1:10">
+      <c r="A561" s="3"/>
+      <c r="B561" s="4"/>
+      <c r="C561" s="4"/>
+      <c r="D561" s="5"/>
+      <c r="E561" s="5"/>
+      <c r="H561" s="6"/>
+      <c r="J561" s="6"/>
+    </row>
+    <row r="562" spans="1:10">
+      <c r="A562" s="3"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="5"/>
+      <c r="E562" s="5"/>
+      <c r="H562" s="6"/>
+      <c r="J562" s="6"/>
+    </row>
+    <row r="563" spans="1:10">
+      <c r="A563" s="3"/>
+      <c r="B563" s="4"/>
+      <c r="C563" s="4"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="5"/>
+      <c r="H563" s="6"/>
+      <c r="J563" s="6"/>
+    </row>
+    <row r="564" spans="1:10">
+      <c r="A564" s="3"/>
+      <c r="B564" s="4"/>
+      <c r="C564" s="4"/>
+      <c r="D564" s="5"/>
+      <c r="E564" s="5"/>
+      <c r="H564" s="6"/>
+      <c r="J564" s="6"/>
+    </row>
+    <row r="565" spans="1:10">
+      <c r="A565" s="3"/>
+      <c r="B565" s="4"/>
+      <c r="C565" s="4"/>
+      <c r="D565" s="5"/>
+      <c r="E565" s="5"/>
+      <c r="H565" s="6"/>
+      <c r="J565" s="6"/>
+    </row>
+    <row r="566" spans="1:10">
+      <c r="A566" s="3"/>
+      <c r="B566" s="4"/>
+      <c r="C566" s="4"/>
+      <c r="D566" s="5"/>
+      <c r="E566" s="5"/>
+      <c r="H566" s="6"/>
+      <c r="J566" s="6"/>
+    </row>
+    <row r="567" spans="1:10">
+      <c r="A567" s="3"/>
+      <c r="B567" s="4"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="5"/>
+      <c r="E567" s="5"/>
+      <c r="H567" s="6"/>
+      <c r="J567" s="6"/>
+    </row>
+    <row r="568" spans="1:10">
+      <c r="A568" s="3"/>
+      <c r="B568" s="4"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="5"/>
+      <c r="E568" s="5"/>
+      <c r="H568" s="6"/>
+      <c r="J568" s="6"/>
+    </row>
+    <row r="569" spans="1:10">
+      <c r="A569" s="3"/>
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="5"/>
+      <c r="E569" s="4"/>
+      <c r="H569" s="6"/>
+      <c r="J569" s="6"/>
+    </row>
+    <row r="570" spans="1:10">
+      <c r="A570" s="3"/>
+      <c r="B570" s="4"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="5"/>
+      <c r="E570" s="5"/>
+      <c r="H570" s="6"/>
+      <c r="J570" s="6"/>
+    </row>
+    <row r="571" spans="1:10">
+      <c r="A571" s="3"/>
+      <c r="B571" s="4"/>
+      <c r="C571" s="4"/>
+      <c r="E571" s="7"/>
+      <c r="H571" s="6"/>
+      <c r="J571" s="6"/>
+    </row>
+    <row r="572" spans="1:10">
+      <c r="A572" s="3"/>
+      <c r="B572" s="4"/>
+      <c r="C572" s="4"/>
+      <c r="D572" s="7"/>
+      <c r="E572" s="3"/>
+      <c r="H572" s="6"/>
+      <c r="J572" s="6"/>
+    </row>
+    <row r="573" spans="1:10">
+      <c r="A573" s="3"/>
+      <c r="B573" s="4"/>
+      <c r="C573" s="4"/>
+      <c r="D573" s="7"/>
+      <c r="E573" s="3"/>
+      <c r="H573" s="6"/>
+      <c r="J573" s="6"/>
+    </row>
+    <row r="574" spans="1:10">
+      <c r="A574" s="3"/>
+      <c r="B574" s="4"/>
+      <c r="C574" s="4"/>
+      <c r="D574" s="7"/>
+      <c r="E574" s="3"/>
+      <c r="H574" s="6"/>
+      <c r="J574" s="6"/>
+    </row>
+    <row r="575" spans="1:10">
+      <c r="A575" s="3"/>
+      <c r="B575" s="4"/>
+      <c r="C575" s="4"/>
+      <c r="D575" s="7"/>
+      <c r="E575" s="3"/>
+      <c r="H575" s="6"/>
+      <c r="J575" s="6"/>
+    </row>
+    <row r="576" spans="1:10">
+      <c r="A576" s="3"/>
+      <c r="B576" s="4"/>
+      <c r="C576" s="4"/>
+      <c r="D576" s="7"/>
+      <c r="E576" s="3"/>
+      <c r="H576" s="6"/>
+      <c r="J576" s="6"/>
+    </row>
+    <row r="577" spans="1:10">
+      <c r="A577" s="3"/>
+      <c r="B577" s="4"/>
+      <c r="C577" s="4"/>
+      <c r="D577" s="5"/>
+      <c r="E577" s="5"/>
+      <c r="H577" s="6"/>
+      <c r="J577" s="6"/>
+    </row>
+    <row r="578" spans="1:10">
+      <c r="A578" s="3"/>
+      <c r="B578" s="4"/>
+      <c r="C578" s="4"/>
+      <c r="D578" s="5"/>
+      <c r="E578" s="5"/>
+      <c r="H578" s="6"/>
+      <c r="J578" s="6"/>
+    </row>
+    <row r="579" spans="1:10">
+      <c r="A579" s="3"/>
+      <c r="B579" s="4"/>
+      <c r="C579" s="4"/>
+      <c r="D579" s="5"/>
+      <c r="E579" s="5"/>
+      <c r="H579" s="6"/>
+      <c r="J579" s="6"/>
+    </row>
+    <row r="580" spans="1:10">
+      <c r="A580" s="3"/>
+      <c r="B580" s="4"/>
+      <c r="C580" s="4"/>
+      <c r="D580" s="5"/>
+      <c r="E580" s="5"/>
+      <c r="H580" s="6"/>
+      <c r="J580" s="6"/>
+    </row>
+    <row r="581" spans="1:10">
+      <c r="A581" s="3"/>
+      <c r="B581" s="4"/>
+      <c r="C581" s="4"/>
+      <c r="D581" s="5"/>
+      <c r="E581" s="5"/>
+      <c r="H581" s="6"/>
+      <c r="J581" s="6"/>
+    </row>
+    <row r="582" spans="1:10">
+      <c r="A582" s="3"/>
+      <c r="B582" s="4"/>
+      <c r="C582" s="4"/>
+      <c r="D582" s="5"/>
+      <c r="E582" s="5"/>
+      <c r="H582" s="6"/>
+      <c r="J582" s="6"/>
+    </row>
+    <row r="583" spans="1:10">
+      <c r="A583" s="3"/>
+      <c r="B583" s="4"/>
+      <c r="C583" s="4"/>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="H583" s="6"/>
+      <c r="J583" s="6"/>
+    </row>
+    <row r="584" spans="1:10">
+      <c r="A584" s="3"/>
+      <c r="B584" s="4"/>
+      <c r="C584" s="4"/>
+      <c r="D584" s="5"/>
+      <c r="E584" s="5"/>
+      <c r="H584" s="6"/>
+      <c r="J584" s="6"/>
+    </row>
+    <row r="585" spans="1:10">
+      <c r="A585" s="3"/>
+      <c r="B585" s="4"/>
+      <c r="C585" s="4"/>
+      <c r="D585" s="5"/>
+      <c r="E585" s="5"/>
+      <c r="H585" s="6"/>
+      <c r="J585" s="6"/>
+    </row>
+    <row r="586" spans="1:10">
+      <c r="A586" s="3"/>
+      <c r="B586" s="4"/>
+      <c r="C586" s="4"/>
+      <c r="D586" s="5"/>
+      <c r="E586" s="5"/>
+      <c r="H586" s="6"/>
+      <c r="J586" s="6"/>
+    </row>
+    <row r="587" spans="1:10">
+      <c r="A587" s="3"/>
+      <c r="B587" s="4"/>
+      <c r="C587" s="4"/>
+      <c r="D587" s="5"/>
+      <c r="E587" s="5"/>
+      <c r="H587" s="6"/>
+      <c r="J587" s="6"/>
+    </row>
+    <row r="588" spans="1:10">
+      <c r="A588" s="3"/>
+      <c r="B588" s="4"/>
+      <c r="C588" s="4"/>
+      <c r="D588" s="5"/>
+      <c r="E588" s="5"/>
+      <c r="H588" s="6"/>
+      <c r="J588" s="6"/>
+    </row>
+    <row r="589" spans="1:10">
+      <c r="A589" s="3"/>
+      <c r="B589" s="4"/>
+      <c r="C589" s="4"/>
+      <c r="D589" s="5"/>
+      <c r="E589" s="5"/>
+      <c r="H589" s="6"/>
+      <c r="J589" s="6"/>
+    </row>
+    <row r="590" spans="1:10">
+      <c r="A590" s="3"/>
+      <c r="B590" s="4"/>
+      <c r="C590" s="4"/>
+      <c r="D590" s="5"/>
+      <c r="E590" s="5"/>
+      <c r="H590" s="6"/>
+      <c r="J590" s="6"/>
+    </row>
+    <row r="591" spans="1:10">
+      <c r="A591" s="3"/>
+      <c r="B591" s="4"/>
+      <c r="C591" s="4"/>
+      <c r="D591" s="5"/>
+      <c r="E591" s="5"/>
+      <c r="H591" s="6"/>
+      <c r="J591" s="6"/>
+    </row>
+    <row r="592" spans="1:10">
+      <c r="A592" s="3"/>
+      <c r="B592" s="4"/>
+      <c r="C592" s="4"/>
+      <c r="D592" s="5"/>
+      <c r="E592" s="4"/>
+      <c r="H592" s="6"/>
+      <c r="J592" s="6"/>
+    </row>
+    <row r="593" spans="1:10">
+      <c r="A593" s="3"/>
+      <c r="B593" s="4"/>
+      <c r="C593" s="4"/>
+      <c r="D593" s="5"/>
+      <c r="E593" s="5"/>
+      <c r="H593" s="6"/>
+      <c r="J593" s="6"/>
+    </row>
+    <row r="594" spans="1:10">
+      <c r="A594" s="3"/>
+      <c r="B594" s="4"/>
+      <c r="C594" s="4"/>
+      <c r="E594" s="7"/>
+      <c r="H594" s="6"/>
+      <c r="J594" s="6"/>
+    </row>
+    <row r="595" spans="1:10">
+      <c r="A595" s="3"/>
+      <c r="B595" s="4"/>
+      <c r="C595" s="4"/>
+      <c r="D595" s="7"/>
+      <c r="E595" s="3"/>
+      <c r="H595" s="6"/>
+      <c r="J595" s="6"/>
+    </row>
+    <row r="596" spans="1:10">
+      <c r="A596" s="3"/>
+      <c r="B596" s="4"/>
+      <c r="C596" s="4"/>
+      <c r="D596" s="7"/>
+      <c r="E596" s="3"/>
+      <c r="H596" s="6"/>
+      <c r="J596" s="6"/>
+    </row>
+    <row r="597" spans="1:10">
+      <c r="A597" s="3"/>
+      <c r="B597" s="4"/>
+      <c r="C597" s="4"/>
+      <c r="D597" s="7"/>
+      <c r="E597" s="3"/>
+      <c r="H597" s="6"/>
+      <c r="J597" s="6"/>
+    </row>
+    <row r="598" spans="1:10">
+      <c r="A598" s="3"/>
+      <c r="B598" s="4"/>
+      <c r="C598" s="4"/>
+      <c r="D598" s="7"/>
+      <c r="E598" s="3"/>
+      <c r="H598" s="6"/>
+      <c r="J598" s="6"/>
+    </row>
+    <row r="599" spans="1:10">
+      <c r="A599" s="3"/>
+      <c r="B599" s="4"/>
+      <c r="C599" s="4"/>
+      <c r="D599" s="7"/>
+      <c r="E599" s="3"/>
+      <c r="H599" s="6"/>
+      <c r="J599" s="6"/>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="A600" s="3"/>
+      <c r="B600" s="4"/>
+      <c r="C600" s="4"/>
+      <c r="D600" s="5"/>
+      <c r="E600" s="5"/>
+      <c r="H600" s="6"/>
+      <c r="J600" s="6"/>
+    </row>
+    <row r="601" spans="1:10">
+      <c r="A601" s="3"/>
+      <c r="B601" s="4"/>
+      <c r="C601" s="4"/>
+      <c r="D601" s="5"/>
+      <c r="E601" s="5"/>
+      <c r="H601" s="6"/>
+      <c r="J601" s="6"/>
+    </row>
+    <row r="602" spans="1:10">
+      <c r="A602" s="3"/>
+      <c r="B602" s="4"/>
+      <c r="C602" s="4"/>
+      <c r="D602" s="5"/>
+      <c r="E602" s="5"/>
+      <c r="H602" s="6"/>
+      <c r="J602" s="6"/>
+    </row>
+    <row r="603" spans="1:10">
+      <c r="A603" s="3"/>
+      <c r="B603" s="4"/>
+      <c r="C603" s="4"/>
+      <c r="D603" s="5"/>
+      <c r="E603" s="5"/>
+      <c r="H603" s="6"/>
+      <c r="J603" s="6"/>
+    </row>
+    <row r="604" spans="1:10">
+      <c r="A604" s="3"/>
+      <c r="B604" s="4"/>
+      <c r="C604" s="4"/>
+      <c r="D604" s="5"/>
+      <c r="E604" s="5"/>
+      <c r="H604" s="6"/>
+      <c r="J604" s="6"/>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605" s="3"/>
+      <c r="B605" s="4"/>
+      <c r="C605" s="4"/>
+      <c r="D605" s="5"/>
+      <c r="E605" s="5"/>
+      <c r="H605" s="6"/>
+      <c r="J605" s="6"/>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606" s="3"/>
+      <c r="B606" s="4"/>
+      <c r="C606" s="4"/>
+      <c r="D606" s="5"/>
+      <c r="E606" s="5"/>
+      <c r="H606" s="6"/>
+      <c r="J606" s="6"/>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607" s="3"/>
+      <c r="B607" s="4"/>
+      <c r="C607" s="4"/>
+      <c r="D607" s="5"/>
+      <c r="E607" s="5"/>
+      <c r="H607" s="6"/>
+      <c r="J607" s="6"/>
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608" s="3"/>
+      <c r="B608" s="4"/>
+      <c r="C608" s="4"/>
+      <c r="D608" s="5"/>
+      <c r="E608" s="5"/>
+      <c r="H608" s="6"/>
+      <c r="J608" s="6"/>
+    </row>
+    <row r="609" spans="1:10">
+      <c r="A609" s="3"/>
+      <c r="B609" s="4"/>
+      <c r="C609" s="4"/>
+      <c r="D609" s="5"/>
+      <c r="E609" s="5"/>
+      <c r="H609" s="6"/>
+      <c r="J609" s="6"/>
+    </row>
+    <row r="610" spans="1:10">
+      <c r="A610" s="3"/>
+      <c r="B610" s="4"/>
+      <c r="C610" s="4"/>
+      <c r="D610" s="5"/>
+      <c r="E610" s="5"/>
+      <c r="H610" s="6"/>
+      <c r="J610" s="6"/>
+    </row>
+    <row r="611" spans="1:10">
+      <c r="A611" s="3"/>
+      <c r="B611" s="4"/>
+      <c r="C611" s="4"/>
+      <c r="D611" s="5"/>
+      <c r="E611" s="5"/>
+      <c r="H611" s="6"/>
+      <c r="J611" s="6"/>
+    </row>
+    <row r="612" spans="1:10">
+      <c r="A612" s="3"/>
+      <c r="B612" s="4"/>
+      <c r="C612" s="4"/>
+      <c r="D612" s="5"/>
+      <c r="E612" s="5"/>
+      <c r="H612" s="6"/>
+      <c r="J612" s="6"/>
+    </row>
+    <row r="613" spans="1:10">
+      <c r="A613" s="3"/>
+      <c r="B613" s="4"/>
+      <c r="C613" s="4"/>
+      <c r="D613" s="5"/>
+      <c r="E613" s="5"/>
+      <c r="H613" s="6"/>
+      <c r="J613" s="6"/>
+    </row>
+    <row r="614" spans="1:10">
+      <c r="A614" s="3"/>
+      <c r="B614" s="4"/>
+      <c r="C614" s="4"/>
+      <c r="D614" s="5"/>
+      <c r="E614" s="5"/>
+      <c r="H614" s="6"/>
+      <c r="J614" s="6"/>
+    </row>
+    <row r="615" spans="1:10">
+      <c r="A615" s="3"/>
+      <c r="B615" s="4"/>
+      <c r="C615" s="4"/>
+      <c r="D615" s="5"/>
+      <c r="E615" s="4"/>
+      <c r="H615" s="6"/>
+      <c r="J615" s="6"/>
+    </row>
+    <row r="616" spans="1:10">
+      <c r="A616" s="3"/>
+      <c r="B616" s="4"/>
+      <c r="C616" s="4"/>
+      <c r="D616" s="5"/>
+      <c r="E616" s="5"/>
+      <c r="H616" s="6"/>
+      <c r="J616" s="6"/>
+    </row>
+    <row r="617" spans="1:10">
+      <c r="A617" s="3"/>
+      <c r="B617" s="4"/>
+      <c r="C617" s="4"/>
+      <c r="E617" s="7"/>
+      <c r="H617" s="6"/>
+      <c r="J617" s="6"/>
+    </row>
+    <row r="618" spans="1:10">
+      <c r="A618" s="3"/>
+      <c r="B618" s="4"/>
+      <c r="C618" s="4"/>
+      <c r="D618" s="7"/>
+      <c r="E618" s="3"/>
+      <c r="H618" s="6"/>
+      <c r="J618" s="6"/>
+    </row>
+    <row r="619" spans="1:10">
+      <c r="A619" s="3"/>
+      <c r="B619" s="4"/>
+      <c r="C619" s="4"/>
+      <c r="D619" s="7"/>
+      <c r="E619" s="3"/>
+      <c r="H619" s="6"/>
+      <c r="J619" s="6"/>
+    </row>
+    <row r="620" spans="1:10">
+      <c r="A620" s="3"/>
+      <c r="B620" s="4"/>
+      <c r="C620" s="4"/>
+      <c r="D620" s="7"/>
+      <c r="E620" s="3"/>
+      <c r="H620" s="6"/>
+      <c r="J620" s="6"/>
+    </row>
+    <row r="621" spans="1:10">
+      <c r="A621" s="3"/>
+      <c r="B621" s="4"/>
+      <c r="C621" s="4"/>
+      <c r="D621" s="7"/>
+      <c r="E621" s="3"/>
+      <c r="H621" s="6"/>
+      <c r="J621" s="6"/>
+    </row>
+    <row r="622" spans="1:10">
+      <c r="A622" s="3"/>
+      <c r="B622" s="4"/>
+      <c r="C622" s="4"/>
+      <c r="D622" s="7"/>
+      <c r="E622" s="3"/>
+      <c r="H622" s="6"/>
+      <c r="J622" s="6"/>
+    </row>
+    <row r="623" spans="1:10">
+      <c r="A623" s="3"/>
+      <c r="B623" s="4"/>
+      <c r="C623" s="4"/>
+      <c r="D623" s="5"/>
+      <c r="E623" s="5"/>
+      <c r="H623" s="6"/>
+      <c r="J623" s="6"/>
+    </row>
+    <row r="624" spans="1:10">
+      <c r="A624" s="3"/>
+      <c r="B624" s="4"/>
+      <c r="C624" s="4"/>
+      <c r="D624" s="5"/>
+      <c r="E624" s="5"/>
+      <c r="H624" s="6"/>
+      <c r="J624" s="6"/>
+    </row>
+    <row r="625" spans="1:10">
+      <c r="A625" s="3"/>
+      <c r="B625" s="4"/>
+      <c r="C625" s="4"/>
+      <c r="D625" s="5"/>
+      <c r="E625" s="5"/>
+      <c r="H625" s="6"/>
+      <c r="J625" s="6"/>
+    </row>
+    <row r="626" spans="1:10">
+      <c r="A626" s="3"/>
+      <c r="B626" s="4"/>
+      <c r="C626" s="4"/>
+      <c r="D626" s="5"/>
+      <c r="E626" s="5"/>
+      <c r="H626" s="6"/>
+      <c r="J626" s="6"/>
+    </row>
+    <row r="627" spans="1:10">
+      <c r="A627" s="3"/>
+      <c r="B627" s="4"/>
+      <c r="C627" s="4"/>
+      <c r="D627" s="5"/>
+      <c r="E627" s="5"/>
+      <c r="H627" s="6"/>
+      <c r="J627" s="6"/>
+    </row>
+    <row r="628" spans="1:10">
+      <c r="A628" s="3"/>
+      <c r="B628" s="4"/>
+      <c r="C628" s="4"/>
+      <c r="D628" s="5"/>
+      <c r="E628" s="5"/>
+      <c r="H628" s="6"/>
+      <c r="J628" s="6"/>
+    </row>
+    <row r="629" spans="1:10">
+      <c r="A629" s="3"/>
+      <c r="B629" s="4"/>
+      <c r="C629" s="4"/>
+      <c r="D629" s="5"/>
+      <c r="E629" s="5"/>
+      <c r="H629" s="6"/>
+      <c r="J629" s="6"/>
+    </row>
+    <row r="630" spans="1:10">
+      <c r="A630" s="3"/>
+      <c r="B630" s="4"/>
+      <c r="C630" s="4"/>
+      <c r="D630" s="5"/>
+      <c r="E630" s="5"/>
+      <c r="H630" s="6"/>
+      <c r="J630" s="6"/>
+    </row>
+    <row r="631" spans="1:10">
+      <c r="A631" s="3"/>
+      <c r="B631" s="4"/>
+      <c r="C631" s="4"/>
+      <c r="D631" s="5"/>
+      <c r="E631" s="5"/>
+      <c r="H631" s="6"/>
+      <c r="J631" s="6"/>
+    </row>
+    <row r="632" spans="1:10">
+      <c r="A632" s="3"/>
+      <c r="B632" s="4"/>
+      <c r="C632" s="4"/>
+      <c r="D632" s="5"/>
+      <c r="E632" s="5"/>
+      <c r="H632" s="6"/>
+      <c r="J632" s="6"/>
+    </row>
+    <row r="633" spans="1:10">
+      <c r="A633" s="3"/>
+      <c r="B633" s="4"/>
+      <c r="C633" s="4"/>
+      <c r="D633" s="5"/>
+      <c r="E633" s="5"/>
+      <c r="H633" s="6"/>
+      <c r="J633" s="6"/>
+    </row>
+    <row r="634" spans="1:10">
+      <c r="A634" s="3"/>
+      <c r="B634" s="4"/>
+      <c r="C634" s="4"/>
+      <c r="D634" s="5"/>
+      <c r="E634" s="5"/>
+      <c r="H634" s="6"/>
+      <c r="J634" s="6"/>
+    </row>
+    <row r="635" spans="1:10">
+      <c r="A635" s="3"/>
+      <c r="B635" s="4"/>
+      <c r="C635" s="4"/>
+      <c r="D635" s="5"/>
+      <c r="E635" s="5"/>
+      <c r="H635" s="6"/>
+      <c r="J635" s="6"/>
+    </row>
+    <row r="636" spans="1:10">
+      <c r="A636" s="3"/>
+      <c r="B636" s="4"/>
+      <c r="C636" s="4"/>
+      <c r="D636" s="5"/>
+      <c r="E636" s="5"/>
+      <c r="H636" s="6"/>
+      <c r="J636" s="6"/>
+    </row>
+    <row r="637" spans="1:10">
+      <c r="A637" s="3"/>
+      <c r="B637" s="4"/>
+      <c r="C637" s="4"/>
+      <c r="D637" s="5"/>
+      <c r="E637" s="5"/>
+      <c r="H637" s="6"/>
+      <c r="J637" s="6"/>
+    </row>
+    <row r="638" spans="1:10">
+      <c r="A638" s="3"/>
+      <c r="B638" s="4"/>
+      <c r="C638" s="4"/>
+      <c r="D638" s="5"/>
+      <c r="E638" s="4"/>
+      <c r="H638" s="6"/>
+      <c r="J638" s="6"/>
+    </row>
+    <row r="639" spans="1:10">
+      <c r="A639" s="3"/>
+      <c r="B639" s="4"/>
+      <c r="C639" s="4"/>
+      <c r="D639" s="5"/>
+      <c r="E639" s="5"/>
+      <c r="H639" s="6"/>
+      <c r="J639" s="6"/>
+    </row>
+    <row r="640" spans="1:10">
+      <c r="A640" s="3"/>
+      <c r="B640" s="4"/>
+      <c r="C640" s="4"/>
+      <c r="E640" s="7"/>
+      <c r="H640" s="6"/>
+      <c r="J640" s="6"/>
+    </row>
+    <row r="641" spans="1:10">
+      <c r="A641" s="3"/>
+      <c r="B641" s="4"/>
+      <c r="C641" s="4"/>
+      <c r="D641" s="7"/>
+      <c r="E641" s="3"/>
+      <c r="H641" s="6"/>
+      <c r="J641" s="6"/>
+    </row>
+    <row r="642" spans="1:10">
+      <c r="A642" s="3"/>
+      <c r="B642" s="4"/>
+      <c r="C642" s="4"/>
+      <c r="D642" s="7"/>
+      <c r="E642" s="3"/>
+      <c r="H642" s="6"/>
+      <c r="J642" s="6"/>
+    </row>
+    <row r="643" spans="1:10">
+      <c r="A643" s="3"/>
+      <c r="B643" s="4"/>
+      <c r="C643" s="4"/>
+      <c r="D643" s="7"/>
+      <c r="E643" s="3"/>
+      <c r="H643" s="6"/>
+      <c r="J643" s="6"/>
+    </row>
+    <row r="644" spans="1:10">
+      <c r="A644" s="3"/>
+      <c r="B644" s="4"/>
+      <c r="C644" s="4"/>
+      <c r="D644" s="7"/>
+      <c r="E644" s="3"/>
+      <c r="H644" s="6"/>
+      <c r="J644" s="6"/>
+    </row>
+    <row r="645" spans="1:10">
+      <c r="A645" s="3"/>
+      <c r="B645" s="4"/>
+      <c r="C645" s="4"/>
+      <c r="D645" s="7"/>
+      <c r="E645" s="3"/>
+      <c r="H645" s="6"/>
+      <c r="J645" s="6"/>
+    </row>
+    <row r="646" spans="1:10">
+      <c r="A646" s="3"/>
+      <c r="B646" s="4"/>
+      <c r="C646" s="4"/>
+      <c r="D646" s="5"/>
+      <c r="E646" s="5"/>
+      <c r="H646" s="6"/>
+      <c r="J646" s="6"/>
+    </row>
+    <row r="647" spans="1:10">
+      <c r="A647" s="3"/>
+      <c r="B647" s="4"/>
+      <c r="C647" s="4"/>
+      <c r="D647" s="5"/>
+      <c r="E647" s="5"/>
+      <c r="H647" s="6"/>
+      <c r="J647" s="6"/>
+    </row>
+    <row r="648" spans="1:10">
+      <c r="A648" s="3"/>
+      <c r="B648" s="4"/>
+      <c r="C648" s="4"/>
+      <c r="D648" s="5"/>
+      <c r="E648" s="5"/>
+      <c r="H648" s="6"/>
+      <c r="J648" s="6"/>
+    </row>
+    <row r="649" spans="1:10">
+      <c r="A649" s="3"/>
+      <c r="B649" s="4"/>
+      <c r="C649" s="4"/>
+      <c r="D649" s="5"/>
+      <c r="E649" s="5"/>
+      <c r="H649" s="6"/>
+      <c r="J649" s="6"/>
+    </row>
+    <row r="650" spans="1:10">
+      <c r="A650" s="3"/>
+      <c r="B650" s="4"/>
+      <c r="C650" s="4"/>
+      <c r="D650" s="5"/>
+      <c r="E650" s="5"/>
+      <c r="H650" s="6"/>
+      <c r="J650" s="6"/>
+    </row>
+    <row r="651" spans="1:10">
+      <c r="A651" s="3"/>
+      <c r="B651" s="4"/>
+      <c r="C651" s="4"/>
+      <c r="D651" s="5"/>
+      <c r="E651" s="5"/>
+      <c r="H651" s="6"/>
+      <c r="J651" s="6"/>
+    </row>
+    <row r="652" spans="1:10">
+      <c r="A652" s="3"/>
+      <c r="B652" s="4"/>
+      <c r="C652" s="4"/>
+      <c r="D652" s="5"/>
+      <c r="E652" s="5"/>
+      <c r="H652" s="6"/>
+      <c r="J652" s="6"/>
+    </row>
+    <row r="653" spans="1:10">
+      <c r="A653" s="3"/>
+      <c r="B653" s="4"/>
+      <c r="C653" s="4"/>
+      <c r="D653" s="5"/>
+      <c r="E653" s="5"/>
+      <c r="H653" s="6"/>
+      <c r="J653" s="6"/>
+    </row>
+    <row r="654" spans="1:10">
+      <c r="A654" s="3"/>
+      <c r="B654" s="4"/>
+      <c r="C654" s="4"/>
+      <c r="D654" s="5"/>
+      <c r="E654" s="5"/>
+      <c r="H654" s="6"/>
+      <c r="J654" s="6"/>
+    </row>
+    <row r="655" spans="1:10">
+      <c r="A655" s="3"/>
+      <c r="B655" s="4"/>
+      <c r="C655" s="4"/>
+      <c r="D655" s="5"/>
+      <c r="E655" s="5"/>
+      <c r="H655" s="6"/>
+      <c r="J655" s="6"/>
+    </row>
+    <row r="656" spans="1:10">
+      <c r="A656" s="3"/>
+      <c r="B656" s="4"/>
+      <c r="C656" s="4"/>
+      <c r="D656" s="5"/>
+      <c r="E656" s="5"/>
+      <c r="H656" s="6"/>
+      <c r="J656" s="6"/>
+    </row>
+    <row r="657" spans="1:10">
+      <c r="A657" s="3"/>
+      <c r="B657" s="4"/>
+      <c r="C657" s="4"/>
+      <c r="D657" s="5"/>
+      <c r="E657" s="5"/>
+      <c r="H657" s="6"/>
+      <c r="J657" s="6"/>
+    </row>
+    <row r="658" spans="1:10">
+      <c r="A658" s="3"/>
+      <c r="B658" s="4"/>
+      <c r="C658" s="4"/>
+      <c r="D658" s="5"/>
+      <c r="E658" s="5"/>
+      <c r="H658" s="6"/>
+      <c r="J658" s="6"/>
+    </row>
+    <row r="659" spans="1:10">
+      <c r="A659" s="3"/>
+      <c r="B659" s="4"/>
+      <c r="C659" s="4"/>
+      <c r="D659" s="5"/>
+      <c r="E659" s="5"/>
+      <c r="H659" s="6"/>
+      <c r="J659" s="6"/>
+    </row>
+    <row r="660" spans="1:10">
+      <c r="A660" s="3"/>
+      <c r="B660" s="4"/>
+      <c r="C660" s="4"/>
+      <c r="D660" s="5"/>
+      <c r="E660" s="5"/>
+      <c r="H660" s="6"/>
+      <c r="J660" s="6"/>
+    </row>
+    <row r="661" spans="1:10">
+      <c r="A661" s="3"/>
+      <c r="B661" s="4"/>
+      <c r="C661" s="4"/>
+      <c r="D661" s="5"/>
+      <c r="E661" s="4"/>
+      <c r="H661" s="6"/>
+      <c r="J661" s="6"/>
+    </row>
+    <row r="662" spans="1:10">
+      <c r="A662" s="3"/>
+      <c r="B662" s="4"/>
+      <c r="C662" s="4"/>
+      <c r="D662" s="5"/>
+      <c r="E662" s="5"/>
+      <c r="H662" s="6"/>
+      <c r="J662" s="6"/>
+    </row>
+    <row r="663" spans="1:10">
+      <c r="A663" s="3"/>
+      <c r="B663" s="4"/>
+      <c r="C663" s="4"/>
+      <c r="E663" s="7"/>
+      <c r="H663" s="6"/>
+      <c r="J663" s="6"/>
+    </row>
+    <row r="664" spans="1:10">
+      <c r="A664" s="3"/>
+      <c r="B664" s="4"/>
+      <c r="C664" s="4"/>
+      <c r="D664" s="7"/>
+      <c r="E664" s="3"/>
+      <c r="H664" s="6"/>
+      <c r="J664" s="6"/>
+    </row>
+    <row r="665" spans="1:10">
+      <c r="A665" s="3"/>
+      <c r="B665" s="4"/>
+      <c r="C665" s="4"/>
+      <c r="D665" s="7"/>
+      <c r="E665" s="3"/>
+      <c r="H665" s="6"/>
+      <c r="J665" s="6"/>
+    </row>
+    <row r="666" spans="1:10">
+      <c r="A666" s="3"/>
+      <c r="B666" s="4"/>
+      <c r="C666" s="4"/>
+      <c r="D666" s="7"/>
+      <c r="E666" s="3"/>
+      <c r="H666" s="6"/>
+      <c r="J666" s="6"/>
+    </row>
+    <row r="667" spans="1:10">
+      <c r="A667" s="3"/>
+      <c r="B667" s="4"/>
+      <c r="C667" s="4"/>
+      <c r="D667" s="7"/>
+      <c r="E667" s="3"/>
+      <c r="H667" s="6"/>
+      <c r="J667" s="6"/>
+    </row>
+    <row r="668" spans="1:10">
+      <c r="A668" s="3"/>
+      <c r="B668" s="4"/>
+      <c r="C668" s="4"/>
+      <c r="D668" s="7"/>
+      <c r="E668" s="3"/>
+      <c r="H668" s="6"/>
+      <c r="J668" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I593">
     <extLst/>
   </autoFilter>
-  <mergeCells count="168">
+  <mergeCells count="232">
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="A25:A47"/>
     <mergeCell ref="A48:A70"/>
@@ -5815,6 +7463,14 @@
     <mergeCell ref="A416:A438"/>
     <mergeCell ref="A439:A461"/>
     <mergeCell ref="A462:A484"/>
+    <mergeCell ref="A485:A507"/>
+    <mergeCell ref="A508:A530"/>
+    <mergeCell ref="A531:A553"/>
+    <mergeCell ref="A554:A576"/>
+    <mergeCell ref="A577:A599"/>
+    <mergeCell ref="A600:A622"/>
+    <mergeCell ref="A623:A645"/>
+    <mergeCell ref="A646:A668"/>
     <mergeCell ref="B2:B24"/>
     <mergeCell ref="B25:B47"/>
     <mergeCell ref="B48:B70"/>
@@ -5836,6 +7492,14 @@
     <mergeCell ref="B416:B438"/>
     <mergeCell ref="B439:B461"/>
     <mergeCell ref="B462:B484"/>
+    <mergeCell ref="B485:B507"/>
+    <mergeCell ref="B508:B530"/>
+    <mergeCell ref="B531:B553"/>
+    <mergeCell ref="B554:B576"/>
+    <mergeCell ref="B577:B599"/>
+    <mergeCell ref="B600:B622"/>
+    <mergeCell ref="B623:B645"/>
+    <mergeCell ref="B646:B668"/>
     <mergeCell ref="C2:C24"/>
     <mergeCell ref="C25:C47"/>
     <mergeCell ref="C48:C70"/>
@@ -5857,6 +7521,14 @@
     <mergeCell ref="C416:C438"/>
     <mergeCell ref="C439:C461"/>
     <mergeCell ref="C462:C484"/>
+    <mergeCell ref="C485:C507"/>
+    <mergeCell ref="C508:C530"/>
+    <mergeCell ref="C531:C553"/>
+    <mergeCell ref="C554:C576"/>
+    <mergeCell ref="C577:C599"/>
+    <mergeCell ref="C600:C622"/>
+    <mergeCell ref="C623:C645"/>
+    <mergeCell ref="C646:C668"/>
     <mergeCell ref="F2:F24"/>
     <mergeCell ref="F25:F47"/>
     <mergeCell ref="F48:F70"/>
@@ -5878,6 +7550,14 @@
     <mergeCell ref="F416:F438"/>
     <mergeCell ref="F439:F461"/>
     <mergeCell ref="F462:F484"/>
+    <mergeCell ref="F485:F507"/>
+    <mergeCell ref="F508:F530"/>
+    <mergeCell ref="F531:F553"/>
+    <mergeCell ref="F554:F576"/>
+    <mergeCell ref="F577:F599"/>
+    <mergeCell ref="F600:F622"/>
+    <mergeCell ref="F623:F645"/>
+    <mergeCell ref="F646:F668"/>
     <mergeCell ref="G2:G24"/>
     <mergeCell ref="G25:G47"/>
     <mergeCell ref="G48:G70"/>
@@ -5899,6 +7579,14 @@
     <mergeCell ref="G416:G438"/>
     <mergeCell ref="G439:G461"/>
     <mergeCell ref="G462:G484"/>
+    <mergeCell ref="G485:G507"/>
+    <mergeCell ref="G508:G530"/>
+    <mergeCell ref="G531:G553"/>
+    <mergeCell ref="G554:G576"/>
+    <mergeCell ref="G577:G599"/>
+    <mergeCell ref="G600:G622"/>
+    <mergeCell ref="G623:G645"/>
+    <mergeCell ref="G646:G668"/>
     <mergeCell ref="H2:H24"/>
     <mergeCell ref="H25:H47"/>
     <mergeCell ref="H48:H70"/>
@@ -5920,6 +7608,14 @@
     <mergeCell ref="H416:H438"/>
     <mergeCell ref="H439:H461"/>
     <mergeCell ref="H462:H484"/>
+    <mergeCell ref="H485:H507"/>
+    <mergeCell ref="H508:H530"/>
+    <mergeCell ref="H531:H553"/>
+    <mergeCell ref="H554:H576"/>
+    <mergeCell ref="H577:H599"/>
+    <mergeCell ref="H600:H622"/>
+    <mergeCell ref="H623:H645"/>
+    <mergeCell ref="H646:H668"/>
     <mergeCell ref="I2:I24"/>
     <mergeCell ref="I25:I47"/>
     <mergeCell ref="I48:I70"/>
@@ -5941,6 +7637,14 @@
     <mergeCell ref="I416:I438"/>
     <mergeCell ref="I439:I461"/>
     <mergeCell ref="I462:I484"/>
+    <mergeCell ref="I485:I507"/>
+    <mergeCell ref="I508:I530"/>
+    <mergeCell ref="I531:I553"/>
+    <mergeCell ref="I554:I576"/>
+    <mergeCell ref="I577:I599"/>
+    <mergeCell ref="I600:I622"/>
+    <mergeCell ref="I623:I645"/>
+    <mergeCell ref="I646:I668"/>
     <mergeCell ref="J2:J24"/>
     <mergeCell ref="J25:J47"/>
     <mergeCell ref="J48:J70"/>
@@ -5962,9 +7666,17 @@
     <mergeCell ref="J416:J438"/>
     <mergeCell ref="J439:J461"/>
     <mergeCell ref="J462:J484"/>
+    <mergeCell ref="J485:J507"/>
+    <mergeCell ref="J508:J530"/>
+    <mergeCell ref="J531:J553"/>
+    <mergeCell ref="J554:J576"/>
+    <mergeCell ref="J577:J599"/>
+    <mergeCell ref="J600:J622"/>
+    <mergeCell ref="J623:J645"/>
+    <mergeCell ref="J646:J668"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I3 I4 I5 I20 I21 I24 I25 I26 I27 I28 I43 I44 I47 I48 I49 I50 I51 I66 I67 I70 I71 I72 I73 I74 I89 I90 I93 I94 I95 I96 I97 I112 I113 I116 I117 I118 I119 I120 I121 I138 I139 I140 I141 I142 I143 I144 I161 I162 I163 I164 I165 I166 I167 I184 I185 I186 I187 I188 I189 I190 I207 I208 I209 I210 I211 I212 I213 I230 I231 I232 I233 I234 I235 I236 I253 I254 I255 I256 I257 I258 I259 I276 I277 I278 I279 I280 I281 I282 I299 I300 I301 I302 I303 I304 I305 I322 I323 I324 I325 I326 I327 I328 I345 I346 I347 I348 I349 I350 I351 I368 I369 I370 I371 I372 I373 I374 I391 I392 I393 I394 I395 I396 I397 I414 I415 I416 I417 I418 I419 I420 I437 I438 I439 I440 I441 I442 I443 I460 I461 I462 I463 I464 I465 I466 I483 I484 I6:I9 I10:I19 I22:I23 I29:I32 I33:I42 I45:I46 I52:I55 I56:I65 I68:I69 I75:I78 I79:I88 I91:I92 I98:I101 I102:I111 I114:I115 I122:I123 I124:I127 I128:I137 I145:I146 I147:I150 I151:I160 I168:I169 I170:I173 I174:I183 I191:I192 I193:I196 I197:I206 I214:I215 I216:I219 I220:I229 I237:I238 I239:I242 I243:I252 I260:I261 I262:I265 I266:I275 I283:I284 I285:I288 I289:I298 I306:I307 I308:I311 I312:I321 I329:I330 I331:I334 I335:I344 I352:I353 I354:I357 I358:I367 I375:I376 I377:I380 I381:I390 I398:I399 I400:I403 I404:I413 I421:I422 I423:I426 I427:I436 I444:I445 I446:I449 I450:I459 I467:I468 I469:I472 I473:I482">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I3 I4 I5 I20 I21 I24 I25 I26 I27 I28 I43 I44 I47 I48 I49 I50 I51 I66 I67 I70 I71 I72 I73 I74 I89 I90 I93 I94 I95 I96 I97 I112 I113 I116 I117 I118 I119 I120 I121 I138 I139 I140 I141 I142 I143 I144 I161 I162 I163 I164 I165 I166 I167 I184 I185 I186 I187 I188 I189 I190 I207 I208 I209 I210 I211 I212 I213 I230 I231 I232 I233 I234 I235 I236 I253 I254 I255 I256 I257 I258 I259 I276 I277 I278 I279 I280 I281 I282 I299 I300 I301 I302 I303 I304 I305 I322 I323 I324 I325 I326 I327 I328 I345 I346 I347 I348 I349 I350 I351 I368 I369 I370 I371 I372 I373 I374 I391 I392 I393 I394 I395 I396 I397 I414 I415 I416 I417 I418 I419 I420 I437 I438 I439 I440 I441 I442 I443 I460 I461 I462 I463 I464 I465 I466 I483 I484 I485 I486 I487 I488 I489 I506 I507 I508 I509 I510 I511 I512 I529 I530 I531 I532 I533 I534 I535 I552 I553 I554 I555 I556 I557 I558 I575 I576 I577 I578 I579 I580 I581 I598 I599 I600 I601 I602 I603 I604 I621 I622 I623 I624 I625 I626 I627 I644 I645 I646 I647 I648 I649 I650 I667 I668 I6:I9 I10:I19 I22:I23 I29:I32 I33:I42 I45:I46 I52:I55 I56:I65 I68:I69 I75:I78 I79:I88 I91:I92 I98:I101 I102:I111 I114:I115 I122:I123 I124:I127 I128:I137 I145:I146 I147:I150 I151:I160 I168:I169 I170:I173 I174:I183 I191:I192 I193:I196 I197:I206 I214:I215 I216:I219 I220:I229 I237:I238 I239:I242 I243:I252 I260:I261 I262:I265 I266:I275 I283:I284 I285:I288 I289:I298 I306:I307 I308:I311 I312:I321 I329:I330 I331:I334 I335:I344 I352:I353 I354:I357 I358:I367 I375:I376 I377:I380 I381:I390 I398:I399 I400:I403 I404:I413 I421:I422 I423:I426 I427:I436 I444:I445 I446:I449 I450:I459 I467:I468 I469:I472 I473:I482 I490:I491 I492:I495 I496:I505 I513:I514 I515:I518 I519:I528 I536:I537 I538:I541 I542:I551 I559:I560 I561:I564 I565:I574 I582:I583 I584:I587 I588:I597 I605:I606 I607:I610 I611:I620 I628:I629 I630:I633 I634:I643 I651:I652 I653:I656 I657:I666">
       <formula1>"P1,P2,P3,P0"</formula1>
     </dataValidation>
   </dataValidations>
